--- a/nos2jdbc-tutorial-spring/src/main/resources/init.xlsx
+++ b/nos2jdbc-tutorial-spring/src/main/resources/init.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -59,24 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">AMOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/12/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021/01/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021/02/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/12/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021/01/28</t>
   </si>
 </sst>
 </file>
@@ -85,13 +67,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,6 +95,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,12 +140,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,10 +177,10 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B6 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.65"/>
   </cols>
@@ -236,10 +224,10 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B6 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.65"/>
   </cols>
@@ -288,10 +276,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B6 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.03"/>
@@ -372,13 +360,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.07"/>
   </cols>
   <sheetData>
@@ -386,7 +374,7 @@
       <c r="A1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -397,8 +385,8 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+      <c r="B2" s="3" t="n">
+        <v>44159</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3000</v>
@@ -408,8 +396,8 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="n">
+        <v>44188</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3001</v>
@@ -419,8 +407,8 @@
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+      <c r="B4" s="3" t="n">
+        <v>44218</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3002</v>
@@ -430,8 +418,8 @@
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="n">
+        <v>44248</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3003</v>
@@ -441,8 +429,8 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+      <c r="B6" s="3" t="n">
+        <v>44186</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4000</v>
@@ -452,8 +440,8 @@
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+      <c r="B7" s="3" t="n">
+        <v>44218</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4001</v>
@@ -463,8 +451,8 @@
       <c r="A8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+      <c r="B8" s="3" t="n">
+        <v>44224</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4002</v>
